--- a/OPD_roguelike/Assets/Texts/Lore/Details.xlsx
+++ b/OPD_roguelike/Assets/Texts/Lore/Details.xlsx
@@ -8,16 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Ключевые персонажи" sheetId="1" r:id="rId1"/>
-    <sheet name="Короны" sheetId="2" r:id="rId2"/>
-    <sheet name="Локации" sheetId="4" r:id="rId3"/>
-    <sheet name="Враги" sheetId="3" r:id="rId4"/>
+    <sheet name="Артефакты" sheetId="2" r:id="rId2"/>
+    <sheet name="Главный таймлайн" sheetId="7" r:id="rId3"/>
+    <sheet name="Локации" sheetId="4" r:id="rId4"/>
+    <sheet name="Квесты" sheetId="5" r:id="rId5"/>
+    <sheet name="Способности (активки)" sheetId="6" r:id="rId6"/>
+    <sheet name="Враги" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="182">
   <si>
     <t>Название персонажа</t>
   </si>
@@ -40,18 +43,12 @@
     <t>-</t>
   </si>
   <si>
-    <t>Андроид Аим Ассист</t>
-  </si>
-  <si>
     <t>Робот, который является страховкой команды в данной миссии тестирования новой портальной пушки</t>
   </si>
   <si>
     <t>Безобиден. Не является игровым персонажем</t>
   </si>
   <si>
-    <t>Лекарь Цилестиал</t>
-  </si>
-  <si>
     <t>Девушка лекарь, которая влюблена в главного героя и выхаживает его после того, как он потерял память</t>
   </si>
   <si>
@@ -91,15 +88,9 @@
     <t>Открывает игроку корону магии</t>
   </si>
   <si>
-    <t>Название короны</t>
-  </si>
-  <si>
     <t>Способность</t>
   </si>
   <si>
-    <t>Открывает главному герою корону горизонта</t>
-  </si>
-  <si>
     <t>Корона Горизонта</t>
   </si>
   <si>
@@ -275,13 +266,313 @@
   </si>
   <si>
     <t>Получение короны Оружия</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Место в истории</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Добыча талисмана из пещеры</t>
+  </si>
+  <si>
+    <t>Самое начало</t>
+  </si>
+  <si>
+    <t>Получение талисмана магии</t>
+  </si>
+  <si>
+    <t>Порядковый номер</t>
+  </si>
+  <si>
+    <t>Квесты - длинные уровни с множеством комнат</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Из этой локации можно будет пойти в данжи, проходить главную сюжетную линию, либо отвлечься на квесты</t>
+  </si>
+  <si>
+    <t>Головоломка</t>
+  </si>
+  <si>
+    <t>Убийство врагов - простой уровень по зачистке от врагов</t>
+  </si>
+  <si>
+    <t>Убийство врагов</t>
+  </si>
+  <si>
+    <t>Головоломка. Тип заключается в поиске ключей в квесте, разгадывание комнат, использование взаиможествия предметов</t>
+  </si>
+  <si>
+    <t>Андроид Аим Ассистович</t>
+  </si>
+  <si>
+    <t>Лекарьша Медсин</t>
+  </si>
+  <si>
+    <t>Безобидна. Не является игровым персонажем</t>
+  </si>
+  <si>
+    <t>Получение артефакта Меч Жажды крови</t>
+  </si>
+  <si>
+    <t>Название артефакты</t>
+  </si>
+  <si>
+    <t>Меч Жажды крови</t>
+  </si>
+  <si>
+    <t>Дает способность получать хп от убийства врага</t>
+  </si>
+  <si>
+    <t>Появляется в результате прохождения второго квеста</t>
+  </si>
+  <si>
+    <t>После прохождения пещеры</t>
+  </si>
+  <si>
+    <t>После прохождения леса</t>
+  </si>
+  <si>
+    <t>После прохождения пустоши</t>
+  </si>
+  <si>
+    <t>Квесты будут иметь отдельную карту по типу:</t>
+  </si>
+  <si>
+    <t>Пройденные квесты</t>
+  </si>
+  <si>
+    <t>Текущий квест</t>
+  </si>
+  <si>
+    <t>Недоступные для прохождения квесты</t>
+  </si>
+  <si>
+    <t>Получение посоха Бури</t>
+  </si>
+  <si>
+    <t>Получение артефакта Магической защиты</t>
+  </si>
+  <si>
+    <t>Посох Бури</t>
+  </si>
+  <si>
+    <t>Артефакт Магической защиты</t>
+  </si>
+  <si>
+    <t>Урон от магических атак уменьшается на 25%</t>
+  </si>
+  <si>
+    <t>Появляется в результате прохождения 4 квеста</t>
+  </si>
+  <si>
+    <t>Появляется в результате прохождения 3 квеста</t>
+  </si>
+  <si>
+    <t>Талисман магии</t>
+  </si>
+  <si>
+    <t>Открывается после прохождения 1 квеста</t>
+  </si>
+  <si>
+    <t>Позволяет использовать заклинания и магию</t>
+  </si>
+  <si>
+    <t>Не является артефактом и игрок всегда носит его</t>
+  </si>
+  <si>
+    <t>Позволяет призвать молнии в комнату для нанесения сплеш урона</t>
+  </si>
+  <si>
+    <t>Цена использования</t>
+  </si>
+  <si>
+    <t>Пассивка</t>
+  </si>
+  <si>
+    <t>Тратит все очки маны</t>
+  </si>
+  <si>
+    <t>Свойство</t>
+  </si>
+  <si>
+    <t>Редкость</t>
+  </si>
+  <si>
+    <t>Является локацией для прохождения всех квестов</t>
+  </si>
+  <si>
+    <t>Открывает главному герою корону горизонта, появляется после прохождения всех квестов</t>
+  </si>
+  <si>
+    <t>Номер события</t>
+  </si>
+  <si>
+    <t>Исследование пещеры</t>
+  </si>
+  <si>
+    <t>Освобождение пещеры</t>
+  </si>
+  <si>
+    <t>Закрытие пещеры</t>
+  </si>
+  <si>
+    <t>Открывается первая локация Лес</t>
+  </si>
+  <si>
+    <t>Открывается второй квест</t>
+  </si>
+  <si>
+    <t>Игрок проходит первый квест, получает талисман Магии</t>
+  </si>
+  <si>
+    <t>Игрок начинает игру, открывается 1 квест</t>
+  </si>
+  <si>
+    <t>1 катсцена с Медсин</t>
+  </si>
+  <si>
+    <t>Побочные</t>
+  </si>
+  <si>
+    <t>Основные события</t>
+  </si>
+  <si>
+    <t>Открывается локация Пустошь</t>
+  </si>
+  <si>
+    <t>Открывается третий квест</t>
+  </si>
+  <si>
+    <t>Новая локация</t>
+  </si>
+  <si>
+    <t>Новый квест</t>
+  </si>
+  <si>
+    <t>Открывается локация Лаборатория</t>
+  </si>
+  <si>
+    <t>Открывается четвертый квест</t>
+  </si>
+  <si>
+    <t>Игрок проходит второй квест, получает Меч Жажды крови</t>
+  </si>
+  <si>
+    <t>Игрок проходит третий квест, получает посох Бури</t>
+  </si>
+  <si>
+    <t>Игрок проходит четвертый квест, получает артефакт Магической защиты</t>
+  </si>
+  <si>
+    <t>Игрок побежает Бестгана, получает корону Оружия</t>
+  </si>
+  <si>
+    <t>Игрок побеждает Дефектора Рета, получает корону Магии</t>
+  </si>
+  <si>
+    <t>Игра зацикливается</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>Игрок возвращается в лобби со всеми открытыми предметами</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>Лобби переструктурируется, создается один вход в Лес</t>
+  </si>
+  <si>
+    <t>1_3</t>
+  </si>
+  <si>
+    <t>LOOP</t>
+  </si>
+  <si>
+    <t>Приходит в лобби Аим Ассистович и вручает Корону Горизонта. Игрок закрывает пещеру</t>
+  </si>
+  <si>
+    <t>Лобби, игрок выбирает артефакт (из доступных входов остались только тренировка и вход в Лес. Если пещера не пройдена, то пещера тоже остается)</t>
+  </si>
+  <si>
+    <t>Бесконечные LOOP'ы</t>
+  </si>
+  <si>
+    <t>Игрок заходит в Лес</t>
+  </si>
+  <si>
+    <t>Убивает Рета</t>
+  </si>
+  <si>
+    <t>Игрок переходит в Пустошь</t>
+  </si>
+  <si>
+    <t>Убивает Бестгана</t>
+  </si>
+  <si>
+    <t>Игрок побеждает Баттлера</t>
+  </si>
+  <si>
+    <t>Убивает Баттлера</t>
+  </si>
+  <si>
+    <t>Игрок переходит в Лабораторию</t>
+  </si>
+  <si>
+    <t>1_4</t>
+  </si>
+  <si>
+    <t>1_5</t>
+  </si>
+  <si>
+    <t>1_6</t>
+  </si>
+  <si>
+    <t>1_7</t>
+  </si>
+  <si>
+    <t>После смерти игрок начинает в лобби с Основного события, на котором он умер.</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
+    <t>2_5</t>
+  </si>
+  <si>
+    <t>2_6</t>
+  </si>
+  <si>
+    <t>2_7</t>
+  </si>
+  <si>
+    <t>Теперь после смерти игрок всегда начинает с этого события</t>
+  </si>
+  <si>
+    <t>И так далее…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,8 +588,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +634,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -348,11 +671,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -377,6 +697,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -384,6 +734,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>570026</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1552575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7762875" y="2705100"/>
+          <a:ext cx="2903651" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,7 +1067,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -686,101 +1079,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="76.5" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="91.5" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60">
+      <c r="A4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60">
-      <c r="A4" s="4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="105">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="105">
-      <c r="A5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="105">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="135">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="135">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -791,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -802,62 +1195,134 @@
     <col min="1" max="1" width="26.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="31" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="22.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45">
+      <c r="A2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="45">
-      <c r="A2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60">
+      <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="45">
-      <c r="A3" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60">
-      <c r="A5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45">
+      <c r="A7" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45">
+      <c r="A8" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -868,144 +1333,487 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="27.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="8" width="9.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="60">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="60">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" ht="90">
+      <c r="A22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30">
+      <c r="A27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30">
+      <c r="A34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="75">
+      <c r="A2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="120">
+      <c r="A3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60">
+      <c r="A4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60">
+      <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="75">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="60">
+      <c r="A7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="120">
-      <c r="A3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="60">
-      <c r="A4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="60">
-      <c r="A5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60">
-      <c r="A6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60">
-      <c r="A7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="90">
+      <c r="A9" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="90">
-      <c r="A9" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1014,85 +1822,255 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="135">
+      <c r="A11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="E14" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="13.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="75">
+      <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:4" ht="60">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="75">
-      <c r="A3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
